--- a/apps/lectut/scripts/old_db/sol.xlsx
+++ b/apps/lectut/scripts/old_db/sol.xlsx
@@ -15,34 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="527">
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>faculty_id</t>
-  </si>
-  <si>
-    <t>course_id</t>
-  </si>
-  <si>
-    <t>file</t>
-  </si>
-  <si>
-    <t>topic</t>
-  </si>
-  <si>
-    <t>permission</t>
-  </si>
-  <si>
-    <t>timestamp</t>
-  </si>
-  <si>
-    <t>link_type</t>
-  </si>
-  <si>
-    <t>link_id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="546">
   <si>
     <t>snsecfec</t>
   </si>
@@ -59,7 +32,7 @@
     <t>2011-11-25 18:48:35</t>
   </si>
   <si>
-    <t>NULL</t>
+    <t>\N</t>
   </si>
   <si>
     <t>EC-331 ec331_soln-ETE_2011(3).pdf</t>
@@ -353,18 +326,6 @@
     <t>2012-12-05 19:37:21</t>
   </si>
   <si>
-    <t>mmishfme</t>
-  </si>
-  <si>
-    <t>CE-201 CWS - CE201 - II Yr Meta.pdf</t>
-  </si>
-  <si>
-    <t>CWS</t>
-  </si>
-  <si>
-    <t>2012-12-06 17:34:49</t>
-  </si>
-  <si>
     <t>EC-201 ete_soln.pdf</t>
   </si>
   <si>
@@ -386,15 +347,6 @@
     <t>2012-12-09 19:00:37</t>
   </si>
   <si>
-    <t>CE-201 CE201_ METALLURGY_MTE-II.pdf</t>
-  </si>
-  <si>
-    <t>MTE-II Marks</t>
-  </si>
-  <si>
-    <t>2012-12-11 17:46:10</t>
-  </si>
-  <si>
     <t>EC-253</t>
   </si>
   <si>
@@ -806,18 +758,6 @@
     <t>2014-04-04 11:20:26</t>
   </si>
   <si>
-    <t>MI-110</t>
-  </si>
-  <si>
-    <t>MI-110 Partial solution to Tut 7-8-9(2).pdf</t>
-  </si>
-  <si>
-    <t>Solution to Tut 7-8-9</t>
-  </si>
-  <si>
-    <t>2014-04-12 12:45:37</t>
-  </si>
-  <si>
     <t>CE-679 Solutions ETE 2014.pdf</t>
   </si>
   <si>
@@ -827,274 +767,802 @@
     <t>2014-04-21 12:39:07</t>
   </si>
   <si>
+    <t>pdebhfcy</t>
+  </si>
+  <si>
+    <t>CY-647</t>
+  </si>
+  <si>
+    <t>CY-647 CassTest1_647_solution.pdf</t>
+  </si>
+  <si>
+    <t>ClassTest1 solution</t>
+  </si>
+  <si>
+    <t>2014-08-07 17:12:47</t>
+  </si>
+  <si>
+    <t>nsukvfma</t>
+  </si>
+  <si>
+    <t>MA-001</t>
+  </si>
+  <si>
+    <t>MA-001 Tut 3 solution.pdf</t>
+  </si>
+  <si>
+    <t>Tut-3</t>
+  </si>
+  <si>
+    <t>2014-09-02 11:54:24</t>
+  </si>
+  <si>
+    <t>MA-001 Tut 1 solution.pdf</t>
+  </si>
+  <si>
+    <t>Tut-1</t>
+  </si>
+  <si>
+    <t>2014-09-02 12:01:33</t>
+  </si>
+  <si>
+    <t>MA-001 Tut 2 solution.pdf</t>
+  </si>
+  <si>
+    <t>Tut 2 solution</t>
+  </si>
+  <si>
+    <t>2014-09-09 17:00:22</t>
+  </si>
+  <si>
+    <t>MA-001 Tut- 3 solution II(1).pdf</t>
+  </si>
+  <si>
+    <t>Tut 3  II </t>
+  </si>
+  <si>
+    <t>2014-09-09 17:42:26</t>
+  </si>
+  <si>
+    <t>millifpt</t>
+  </si>
+  <si>
+    <t>AS-103S</t>
+  </si>
+  <si>
+    <t>AS-103S Exercise -1.zip</t>
+  </si>
+  <si>
+    <t>solution-exercise 1</t>
+  </si>
+  <si>
+    <t>2014-09-15 14:26:31</t>
+  </si>
+  <si>
+    <t>AS-103S Exercise -2.zip</t>
+  </si>
+  <si>
+    <t>solution-exercise 2</t>
+  </si>
+  <si>
+    <t>2014-09-15 14:27:38</t>
+  </si>
+  <si>
+    <t>AS-103S Exercise -3.zip</t>
+  </si>
+  <si>
+    <t>solution-exercise 3</t>
+  </si>
+  <si>
+    <t>2014-09-15 14:28:31</t>
+  </si>
+  <si>
+    <t>pkumafce</t>
+  </si>
+  <si>
+    <t>CE-105 CE105_Quiz_Solution (1).pdf</t>
+  </si>
+  <si>
+    <t>Quiz1</t>
+  </si>
+  <si>
+    <t>2014-09-15 18:57:53</t>
+  </si>
+  <si>
+    <t>MA-001 Tut -4 Solution.pdf</t>
+  </si>
+  <si>
+    <t>Tutorial 4 </t>
+  </si>
+  <si>
+    <t>2014-09-16 17:40:49</t>
+  </si>
+  <si>
+    <t>MA-001 tut 5 solution.pdf</t>
+  </si>
+  <si>
+    <t>tutorial 5</t>
+  </si>
+  <si>
+    <t>2014-09-22 11:07:51</t>
+  </si>
+  <si>
+    <t>CE-564</t>
+  </si>
+  <si>
+    <t>CE-564 SOLUTION OF MTE_Aut_2014.pdf</t>
+  </si>
+  <si>
+    <t>Solution MTE</t>
+  </si>
+  <si>
+    <t>2014-09-23 17:10:45</t>
+  </si>
+  <si>
+    <t>EC-512</t>
+  </si>
+  <si>
+    <t>EC-512 Tut1soln.pdf</t>
+  </si>
+  <si>
+    <t>Tutorial 1</t>
+  </si>
+  <si>
+    <t>2014-09-24 03:00:15</t>
+  </si>
+  <si>
+    <t>EC-512 Tut2soln.pdf</t>
+  </si>
+  <si>
+    <t>Tutorial 2</t>
+  </si>
+  <si>
+    <t>2014-09-24 03:01:56</t>
+  </si>
+  <si>
+    <t>EC-512 Tut3soln.pdf</t>
+  </si>
+  <si>
+    <t>Tutorial 3</t>
+  </si>
+  <si>
+    <t>2014-09-24 03:03:15</t>
+  </si>
+  <si>
+    <t>EC-512 Tut4soln.pdf</t>
+  </si>
+  <si>
+    <t>Tutorial 4</t>
+  </si>
+  <si>
+    <t>2014-09-24 03:05:02</t>
+  </si>
+  <si>
+    <t>EC-101</t>
+  </si>
+  <si>
+    <t>EC-101 Solution MTE-2014.pdf</t>
+  </si>
+  <si>
+    <t>MTE-Solution</t>
+  </si>
+  <si>
+    <t>2014-09-24 17:44:55</t>
+  </si>
+  <si>
+    <t>rgaurfhs</t>
+  </si>
+  <si>
+    <t>HS-001BA</t>
+  </si>
+  <si>
+    <t>HS-001BASIC HS 001 Basic MTE Solutions.docx</t>
+  </si>
+  <si>
+    <t>Solutions  Mid-term Paper</t>
+  </si>
+  <si>
+    <t>2014-09-25 11:35:06</t>
+  </si>
+  <si>
+    <t>dkashfce</t>
+  </si>
+  <si>
+    <t>CE-205</t>
+  </si>
+  <si>
+    <t>CE-205 Answers MTE.pdf</t>
+  </si>
+  <si>
+    <t>Solutions for MTE</t>
+  </si>
+  <si>
+    <t>2014-10-07 13:08:59</t>
+  </si>
+  <si>
+    <t>goravfch</t>
+  </si>
+  <si>
+    <t>CH-101</t>
+  </si>
+  <si>
+    <t>CH-101 Test_solutions.pdf</t>
+  </si>
+  <si>
+    <t>Test Solution </t>
+  </si>
+  <si>
+    <t>2014-10-12 13:40:43</t>
+  </si>
+  <si>
+    <t>malikfma</t>
+  </si>
+  <si>
+    <t>MA-001 Q Series(1).zip</t>
+  </si>
+  <si>
+    <t>Q batch marks after rechecking</t>
+  </si>
+  <si>
+    <t>2014-11-04 21:10:30</t>
+  </si>
+  <si>
+    <t>MA-001QW</t>
+  </si>
+  <si>
+    <t>MA-001QW Tut-6 Solution (I).docx</t>
+  </si>
+  <si>
+    <t>solution Tut-6</t>
+  </si>
+  <si>
+    <t>2014-11-10 18:46:36</t>
+  </si>
+  <si>
+    <t>MA-001 Tut-7 Solution.pdf</t>
+  </si>
+  <si>
+    <t>Tut-7 Solution I</t>
+  </si>
+  <si>
+    <t>2014-11-13 11:15:07</t>
+  </si>
+  <si>
+    <t>MA-001 Tut 7 Solution II.pdf</t>
+  </si>
+  <si>
+    <t>Tut 7 Solution II</t>
+  </si>
+  <si>
+    <t>2014-11-13 11:16:03</t>
+  </si>
+  <si>
+    <t>MA-001 Tut 8 Solution.pdf</t>
+  </si>
+  <si>
+    <t>Tut-8 Solution</t>
+  </si>
+  <si>
+    <t>2014-11-13 11:16:47</t>
+  </si>
+  <si>
+    <t>MA-001 Tutorial 6 Solution.pdf</t>
+  </si>
+  <si>
+    <t>Tut-6 Solution</t>
+  </si>
+  <si>
+    <t>2014-11-13 11:29:36</t>
+  </si>
+  <si>
+    <t>MA-001 Tut-9 Solution.pdf</t>
+  </si>
+  <si>
+    <t>Tut 9</t>
+  </si>
+  <si>
+    <t>2014-11-13 11:47:12</t>
+  </si>
+  <si>
+    <t>CE-564 Solution ETE Autumn 2014.pdf</t>
+  </si>
+  <si>
+    <t>ETE 2014</t>
+  </si>
+  <si>
+    <t>2014-11-15 17:47:28</t>
+  </si>
+  <si>
+    <t>EC-101 Solution ETE-Aut2014.pdf</t>
+  </si>
+  <si>
+    <t>2014-11-21 18:55:05</t>
+  </si>
+  <si>
+    <t>HSS-02</t>
+  </si>
+  <si>
+    <t>HSS-02 HSS-02 notice for seeing answer scripts.docx</t>
+  </si>
+  <si>
+    <t>endsem answer scripts</t>
+  </si>
+  <si>
+    <t>2014-11-23 22:59:41</t>
+  </si>
+  <si>
+    <t>HS-001A</t>
+  </si>
+  <si>
+    <t>HS-001A ETE COPIES DISPLAY.docx</t>
+  </si>
+  <si>
+    <t>ETE COPIES DISPLAY</t>
+  </si>
+  <si>
+    <t>2014-11-25 18:06:56</t>
+  </si>
+  <si>
+    <t>suryafce</t>
+  </si>
+  <si>
+    <t>CE-205 CE-205_Final_ans.pdf</t>
+  </si>
+  <si>
+    <t>CE 205 final eam answer key</t>
+  </si>
+  <si>
+    <t>2014-11-27 11:37:32</t>
+  </si>
+  <si>
+    <t>IHS-04 IHS-04.xlsx</t>
+  </si>
+  <si>
+    <t>FINAL GRADES AUTUMN 2014</t>
+  </si>
+  <si>
+    <t>2014-11-30 12:27:01</t>
+  </si>
+  <si>
+    <t>vipulfeq</t>
+  </si>
+  <si>
+    <t>CE-206</t>
+  </si>
+  <si>
+    <t>CE-206 CEN206Tutorial1Solved.pdf</t>
+  </si>
+  <si>
+    <t>Tutorial 1 Influence LInes</t>
+  </si>
+  <si>
+    <t>2015-01-07 09:37:57</t>
+  </si>
+  <si>
+    <t>CE-202</t>
+  </si>
+  <si>
+    <t>CE-202 Answers Tutorial 1.pdf</t>
+  </si>
+  <si>
+    <t>Answers to Tutorial 1</t>
+  </si>
+  <si>
+    <t>2015-01-25 23:20:15</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>CEN-206</t>
+  </si>
+  <si>
+    <t>CEN-206 STRANAIITut3Solutions.pdf</t>
+  </si>
+  <si>
+    <t>Tutorial 3 Solutions</t>
+  </si>
+  <si>
+    <t>2015-02-17 19:43:27</t>
+  </si>
+  <si>
+    <t>CEN-206 STRANAIITut2Solutions.pdf</t>
+  </si>
+  <si>
+    <t>Tutorial 2  Influence Lines</t>
+  </si>
+  <si>
+    <t>2015-02-17 19:43:48</t>
+  </si>
+  <si>
+    <t>karunfec</t>
+  </si>
+  <si>
+    <t>EC-102KR</t>
+  </si>
+  <si>
+    <t>EC-102KR Tutorial 1a_solutions.pdf</t>
+  </si>
+  <si>
+    <t>Tutorial1a Solutions</t>
+  </si>
+  <si>
+    <t>2015-02-21 13:32:06</t>
+  </si>
+  <si>
+    <t>EC-102 tutorial 1b_solutions.pdf</t>
+  </si>
+  <si>
+    <t>Tutorial1b Solutions</t>
+  </si>
+  <si>
+    <t>2015-02-21 13:32:45</t>
+  </si>
+  <si>
+    <t>CE-202 Answers Tutorial 2.pdf</t>
+  </si>
+  <si>
+    <t>Answer Tutorial  2</t>
+  </si>
+  <si>
+    <t>2015-02-22 20:37:06</t>
+  </si>
+  <si>
+    <t>CE-202 Answers tutorial  4.pdf</t>
+  </si>
+  <si>
+    <t>Answer Tutorial   4</t>
+  </si>
+  <si>
+    <t>2015-02-24 08:17:54</t>
+  </si>
+  <si>
+    <t>CE-202 Answers Tutorial  3.pdf</t>
+  </si>
+  <si>
+    <t>Answers Tutorial 3</t>
+  </si>
+  <si>
+    <t>2015-02-24 08:19:32</t>
+  </si>
+  <si>
+    <t>CEN-206 CEN206Tutorial4SolutionByMomentDistributionMethod001.pdf</t>
+  </si>
+  <si>
+    <t>Tutorial 4 By Moment Distribution Methods</t>
+  </si>
+  <si>
+    <t>2015-02-24 14:48:20</t>
+  </si>
+  <si>
+    <t>sarkhel.fph</t>
+  </si>
+  <si>
+    <t>PHN-008</t>
+  </si>
+  <si>
+    <t>PHN-008 Answers for Tut 1 2 and 3.pdf</t>
+  </si>
+  <si>
+    <t>Answers for Tut 1  2 and 3</t>
+  </si>
+  <si>
+    <t>2015-02-25 17:31:05</t>
+  </si>
+  <si>
+    <t>sonarfce</t>
+  </si>
+  <si>
+    <t>CE-354</t>
+  </si>
+  <si>
+    <t>CE-354 CE 354_MTE-Solution.pdf</t>
+  </si>
+  <si>
+    <t>MTE Solutions  Design of steel elements </t>
+  </si>
+  <si>
+    <t>2015-03-10 15:16:47</t>
+  </si>
+  <si>
+    <t>CEN-102</t>
+  </si>
+  <si>
+    <t>CEN-102 Ans_MTE_CE-102_Q1_Q2.pdf</t>
+  </si>
+  <si>
+    <t>MTE-102 Solution  Q1 Q2</t>
+  </si>
+  <si>
+    <t>2015-03-27 18:18:38</t>
+  </si>
+  <si>
+    <t>CH-102</t>
+  </si>
+  <si>
+    <t>CH-102 solution_energy_balance.pdf</t>
+  </si>
+  <si>
+    <t>Solution-energy-balance-tutorial</t>
+  </si>
+  <si>
+    <t>2015-04-24 08:55:13</t>
+  </si>
+  <si>
+    <t>ghoshfcy</t>
+  </si>
+  <si>
+    <t>CYN-006</t>
+  </si>
+  <si>
+    <t>CYN-006 Answers of End term examMay2015.ppt</t>
+  </si>
+  <si>
+    <t>Answer ETE KGhosh</t>
+  </si>
+  <si>
+    <t>2015-05-01 18:48:33</t>
+  </si>
+  <si>
+    <t>vipulfph</t>
+  </si>
+  <si>
+    <t>PHN-008 Display of ETE anshwer sheets.jpg</t>
+  </si>
+  <si>
+    <t>Display of answerscripts of ETE</t>
+  </si>
+  <si>
+    <t>2015-05-05 16:21:58</t>
+  </si>
+  <si>
+    <t>sugatfma</t>
+  </si>
+  <si>
+    <t>CS-106</t>
+  </si>
+  <si>
+    <t>CS-106 Question 7(b) Solution 001.jpg</t>
+  </si>
+  <si>
+    <t>Question 7 b </t>
+  </si>
+  <si>
+    <t>2015-05-07 16:01:53</t>
+  </si>
+  <si>
+    <t>dev27fmt</t>
+  </si>
+  <si>
+    <t>MTN-292</t>
+  </si>
+  <si>
+    <t>MTN-292 MTN-292 students.pdf</t>
+  </si>
+  <si>
+    <t>grade</t>
+  </si>
+  <si>
+    <t>2015-05-08 18:21:59</t>
+  </si>
+  <si>
+    <t>prakbfch</t>
+  </si>
+  <si>
+    <t>CHN-201</t>
+  </si>
+  <si>
+    <t>CHN-201 Solution Tutorial 1_Autumn 15-16.pdf</t>
+  </si>
+  <si>
+    <t>Solution Tutorial 1</t>
+  </si>
+  <si>
+    <t>2015-08-13 11:13:33</t>
+  </si>
+  <si>
+    <t>CHN-201 Tutorial _2 and Solution_Autumn 2015_16.pdf</t>
+  </si>
+  <si>
+    <t>Solution Tutorial 2</t>
+  </si>
+  <si>
+    <t>2015-08-13 11:15:10</t>
+  </si>
+  <si>
+    <t>MA-303</t>
+  </si>
+  <si>
+    <t>MA-303 Image (39).jpg</t>
+  </si>
+  <si>
+    <t>Two link manipulator</t>
+  </si>
+  <si>
+    <t>2015-08-24 18:11:28</t>
+  </si>
+  <si>
+    <t>MA-303 solu 2.jpeg</t>
+  </si>
+  <si>
+    <t>2015-08-24 19:28:11</t>
+  </si>
+  <si>
+    <t>ram77fdm</t>
+  </si>
+  <si>
+    <t>IBM-309</t>
+  </si>
+  <si>
+    <t>IBM-309 Assignment -1-Solution(2).docx</t>
+  </si>
+  <si>
+    <t>Assignment solutions</t>
+  </si>
+  <si>
+    <t>2015-08-31 16:09:02</t>
+  </si>
+  <si>
+    <t>MA-303 D-H algorithm 1.jpeg</t>
+  </si>
+  <si>
+    <t>D-H 1</t>
+  </si>
+  <si>
+    <t>2015-09-02 17:55:24</t>
+  </si>
+  <si>
+    <t>MA-303 D-H algorithm 2.jpeg</t>
+  </si>
+  <si>
+    <t>D-H 2</t>
+  </si>
+  <si>
+    <t>2015-09-02 17:56:09</t>
+  </si>
+  <si>
+    <t>MA-303 Composit Homogeneous Transformations.jpeg</t>
+  </si>
+  <si>
+    <t>Tut 2 </t>
+  </si>
+  <si>
+    <t>2015-09-02 17:59:07</t>
+  </si>
+  <si>
+    <t>CHN-201 Solution Tutorial 3_Autumn 15-16(1).pdf</t>
+  </si>
+  <si>
+    <t>Solution Tutorial 3</t>
+  </si>
+  <si>
+    <t>2015-09-09 13:25:13</t>
+  </si>
+  <si>
+    <t>CHN-201 Solution Tutorial 4_2015-16.pdf</t>
+  </si>
+  <si>
+    <t>Solution Tutorial 4</t>
+  </si>
+  <si>
+    <t>2015-09-09 13:26:14</t>
+  </si>
+  <si>
+    <t>CHN-201 Solution_Tutorial_5.pdf</t>
+  </si>
+  <si>
+    <t>Solution Tutorial 5</t>
+  </si>
+  <si>
+    <t>2015-09-09 13:27:33</t>
+  </si>
+  <si>
+    <t>CHN-201 CHN 201 Quiz 1 Solution.pdf</t>
+  </si>
+  <si>
+    <t>Solution Quiz 1</t>
+  </si>
+  <si>
+    <t>2015-09-09 13:30:03</t>
+  </si>
+  <si>
+    <t>CYN-009</t>
+  </si>
+  <si>
+    <t>CYN-009 Tut_I_CYN009_answers.pdf</t>
+  </si>
+  <si>
+    <t>Tut-I Answers  Phys part </t>
+  </si>
+  <si>
+    <t>2015-09-10 12:48:26</t>
+  </si>
+  <si>
     <t>hem12fcy</t>
   </si>
   <si>
-    <t>CY-008</t>
-  </si>
-  <si>
-    <t>CY-008 final_cy008_spring2014_cws_mte_prs.pdf</t>
-  </si>
-  <si>
-    <t>CWS  PRS abd NTE marks</t>
-  </si>
-  <si>
-    <t>2014-04-21 15:28:51</t>
-  </si>
-  <si>
-    <t>pdebhfcy</t>
-  </si>
-  <si>
-    <t>CY-647</t>
-  </si>
-  <si>
-    <t>CY-647 CassTest1_647_solution.pdf</t>
-  </si>
-  <si>
-    <t>ClassTest1 solution</t>
-  </si>
-  <si>
-    <t>2014-08-07 17:12:47</t>
-  </si>
-  <si>
     <t>CY-001</t>
   </si>
   <si>
-    <t>CY-001 tutorial1_solution(1).pdf</t>
-  </si>
-  <si>
-    <t>Quantum Mechanics </t>
-  </si>
-  <si>
-    <t>2014-08-28 09:21:14</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>CY-001 tutorial2_solution.pdf</t>
-  </si>
-  <si>
-    <t>Quantum Mechanics  tutorial-2 solution </t>
-  </si>
-  <si>
-    <t>2014-08-28 19:12:38</t>
-  </si>
-  <si>
-    <t>nsukvfma</t>
-  </si>
-  <si>
-    <t>MA-001</t>
-  </si>
-  <si>
-    <t>MA-001 Tut 3 solution.pdf</t>
-  </si>
-  <si>
-    <t>Tut-3</t>
-  </si>
-  <si>
-    <t>2014-09-02 11:54:24</t>
-  </si>
-  <si>
-    <t>MA-001 Tut 1 solution.pdf</t>
-  </si>
-  <si>
-    <t>Tut-1</t>
-  </si>
-  <si>
-    <t>2014-09-02 12:01:33</t>
-  </si>
-  <si>
-    <t>MA-001 Tut 2 solution.pdf</t>
-  </si>
-  <si>
-    <t>Tut 2 solution</t>
-  </si>
-  <si>
-    <t>2014-09-09 17:00:22</t>
-  </si>
-  <si>
-    <t>MA-001 Tut- 3 solution II(1).pdf</t>
-  </si>
-  <si>
-    <t>Tut 3  II </t>
-  </si>
-  <si>
-    <t>2014-09-09 17:42:26</t>
-  </si>
-  <si>
-    <t>millifpt</t>
-  </si>
-  <si>
-    <t>AS-103S</t>
-  </si>
-  <si>
-    <t>AS-103S Exercise -1.zip</t>
-  </si>
-  <si>
-    <t>solution-exercise 1</t>
-  </si>
-  <si>
-    <t>2014-09-15 14:26:31</t>
-  </si>
-  <si>
-    <t>AS-103S Exercise -2.zip</t>
-  </si>
-  <si>
-    <t>solution-exercise 2</t>
-  </si>
-  <si>
-    <t>2014-09-15 14:27:38</t>
-  </si>
-  <si>
-    <t>AS-103S Exercise -3.zip</t>
-  </si>
-  <si>
-    <t>solution-exercise 3</t>
-  </si>
-  <si>
-    <t>2014-09-15 14:28:31</t>
-  </si>
-  <si>
-    <t>CY-001 tutorial3_soln.pdf</t>
-  </si>
-  <si>
-    <t>Quantum Mechanics  tutorial-3 </t>
-  </si>
-  <si>
-    <t>2014-09-15 16:32:49</t>
-  </si>
-  <si>
-    <t>pkumafce</t>
-  </si>
-  <si>
-    <t>CE-105 CE105_Quiz_Solution (1).pdf</t>
-  </si>
-  <si>
-    <t>Quiz1</t>
-  </si>
-  <si>
-    <t>2014-09-15 18:57:53</t>
-  </si>
-  <si>
-    <t>MA-001 Tut -4 Solution.pdf</t>
-  </si>
-  <si>
-    <t>Tutorial 4 </t>
-  </si>
-  <si>
-    <t>2014-09-16 17:40:49</t>
-  </si>
-  <si>
-    <t>MA-001 tut 5 solution.pdf</t>
-  </si>
-  <si>
-    <t>tutorial 5</t>
-  </si>
-  <si>
-    <t>2014-09-22 11:07:51</t>
-  </si>
-  <si>
-    <t>CE-564</t>
-  </si>
-  <si>
-    <t>CE-564 SOLUTION OF MTE_Aut_2014.pdf</t>
-  </si>
-  <si>
-    <t>Solution MTE</t>
-  </si>
-  <si>
-    <t>2014-09-23 17:10:45</t>
-  </si>
-  <si>
-    <t>EC-512</t>
-  </si>
-  <si>
-    <t>EC-512 Tut1soln.pdf</t>
-  </si>
-  <si>
-    <t>Tutorial 1</t>
-  </si>
-  <si>
-    <t>2014-09-24 03:00:15</t>
-  </si>
-  <si>
-    <t>EC-512 Tut2soln.pdf</t>
-  </si>
-  <si>
-    <t>Tutorial 2</t>
-  </si>
-  <si>
-    <t>2014-09-24 03:01:56</t>
-  </si>
-  <si>
-    <t>EC-512 Tut3soln.pdf</t>
-  </si>
-  <si>
-    <t>Tutorial 3</t>
-  </si>
-  <si>
-    <t>2014-09-24 03:03:15</t>
-  </si>
-  <si>
-    <t>EC-512 Tut4soln.pdf</t>
-  </si>
-  <si>
-    <t>Tutorial 4</t>
-  </si>
-  <si>
-    <t>2014-09-24 03:05:02</t>
-  </si>
-  <si>
-    <t>EC-202</t>
-  </si>
-  <si>
-    <t>EC-202 203_mte_soln_2014.pdf</t>
-  </si>
-  <si>
-    <t>2014-09-24 10:02:09</t>
-  </si>
-  <si>
-    <t>EC-101</t>
-  </si>
-  <si>
-    <t>EC-101 Solution MTE-2014.pdf</t>
-  </si>
-  <si>
-    <t>MTE-Solution</t>
-  </si>
-  <si>
-    <t>2014-09-24 17:44:55</t>
-  </si>
-  <si>
-    <t>rgaurfhs</t>
-  </si>
-  <si>
-    <t>HS-001BA</t>
-  </si>
-  <si>
-    <t>HS-001BASIC HS 001 Basic MTE Solutions.docx</t>
-  </si>
-  <si>
-    <t>Solutions  Mid-term Paper</t>
-  </si>
-  <si>
-    <t>2014-09-25 11:35:06</t>
-  </si>
-  <si>
-    <t>pcsrifph</t>
-  </si>
-  <si>
-    <t>PH-001</t>
-  </si>
-  <si>
-    <t>PH-001 MTE_NOTICE.pdf</t>
-  </si>
-  <si>
-    <t>MTE-Mechanics answer scripts will be shown on 8th October </t>
-  </si>
-  <si>
-    <t>2014-09-25 12:35:49</t>
+    <t>CY-001 Tutorial_related-1.zip</t>
+  </si>
+  <si>
+    <t>Tutorial related -1</t>
+  </si>
+  <si>
+    <t>2015-09-10 13:31:22</t>
+  </si>
+  <si>
+    <t>CY-001 tutorial_related-2.zip</t>
+  </si>
+  <si>
+    <t>Tutorial related -2</t>
+  </si>
+  <si>
+    <t>2015-09-10 13:31:41</t>
+  </si>
+  <si>
+    <t>prmdkfce</t>
+  </si>
+  <si>
+    <t>CEN-105</t>
+  </si>
+  <si>
+    <t>CEN-105 CE-105 Exercises-I.pdf</t>
+  </si>
+  <si>
+    <t>CE-105 X-I</t>
+  </si>
+  <si>
+    <t>2015-09-11 14:17:28</t>
+  </si>
+  <si>
+    <t>bhanufce</t>
+  </si>
+  <si>
+    <t>CE-105 CE 105 HW Keys.xps</t>
+  </si>
+  <si>
+    <t>HW Keys</t>
+  </si>
+  <si>
+    <t>2015-09-13 21:57:58</t>
+  </si>
+  <si>
+    <t>tapasfcy</t>
+  </si>
+  <si>
+    <t>CYN-001</t>
+  </si>
+  <si>
+    <t>CYN-001 Class-Test-11-9-2015-Solution.PDF</t>
+  </si>
+  <si>
+    <t>Chemical Equilibria</t>
+  </si>
+  <si>
+    <t>2015-09-18 14:20:41</t>
+  </si>
+  <si>
+    <t>bashefch</t>
+  </si>
+  <si>
+    <t>CEN-105 Sheet  4 with solution.docx</t>
+  </si>
+  <si>
+    <t>Fourth sheet</t>
+  </si>
+  <si>
+    <t>2015-09-18 15:39:12</t>
+  </si>
+  <si>
+    <t>CEN-105 Solution sheet 2.docx</t>
+  </si>
+  <si>
+    <t>sheet 2</t>
+  </si>
+  <si>
+    <t>2015-09-18 15:56:09</t>
   </si>
   <si>
     <t>vivekfph</t>
@@ -1103,499 +1571,88 @@
     <t>PH-005</t>
   </si>
   <si>
-    <t>PH-005 Solutions_MTE.pdf</t>
-  </si>
-  <si>
-    <t>MTE Solutions</t>
-  </si>
-  <si>
-    <t>2014-09-26 12:24:40</t>
-  </si>
-  <si>
-    <t>dkashfce</t>
-  </si>
-  <si>
-    <t>CE-205</t>
-  </si>
-  <si>
-    <t>CE-205 Answers MTE.pdf</t>
-  </si>
-  <si>
-    <t>Solutions for MTE</t>
-  </si>
-  <si>
-    <t>2014-10-07 13:08:59</t>
-  </si>
-  <si>
-    <t>goravfch</t>
-  </si>
-  <si>
-    <t>CH-101</t>
-  </si>
-  <si>
-    <t>CH-101 Test_solutions.pdf</t>
-  </si>
-  <si>
-    <t>Test Solution </t>
-  </si>
-  <si>
-    <t>2014-10-12 13:40:43</t>
-  </si>
-  <si>
-    <t>PH-005 PH-005.pdf</t>
-  </si>
-  <si>
-    <t>Answer Scipts</t>
-  </si>
-  <si>
-    <t>2014-10-21 00:58:45</t>
-  </si>
-  <si>
-    <t>EC-202 203_quiz2_soln_2014.pdf</t>
-  </si>
-  <si>
-    <t>Quiz II</t>
-  </si>
-  <si>
-    <t>2014-11-04 13:24:55</t>
-  </si>
-  <si>
-    <t>malikfma</t>
-  </si>
-  <si>
-    <t>MA-001 Q Series(1).zip</t>
-  </si>
-  <si>
-    <t>Q batch marks after rechecking</t>
-  </si>
-  <si>
-    <t>2014-11-04 21:10:30</t>
-  </si>
-  <si>
-    <t>MA-001QW</t>
-  </si>
-  <si>
-    <t>MA-001QW Tut-6 Solution (I).docx</t>
-  </si>
-  <si>
-    <t>solution Tut-6</t>
-  </si>
-  <si>
-    <t>2014-11-10 18:46:36</t>
-  </si>
-  <si>
-    <t>MA-001 Tut-7 Solution.pdf</t>
-  </si>
-  <si>
-    <t>Tut-7 Solution I</t>
-  </si>
-  <si>
-    <t>2014-11-13 11:15:07</t>
-  </si>
-  <si>
-    <t>MA-001 Tut 7 Solution II.pdf</t>
-  </si>
-  <si>
-    <t>Tut 7 Solution II</t>
-  </si>
-  <si>
-    <t>2014-11-13 11:16:03</t>
-  </si>
-  <si>
-    <t>MA-001 Tut 8 Solution.pdf</t>
-  </si>
-  <si>
-    <t>Tut-8 Solution</t>
-  </si>
-  <si>
-    <t>2014-11-13 11:16:47</t>
-  </si>
-  <si>
-    <t>MA-001 Tutorial 6 Solution.pdf</t>
-  </si>
-  <si>
-    <t>Tut-6 Solution</t>
-  </si>
-  <si>
-    <t>2014-11-13 11:29:36</t>
-  </si>
-  <si>
-    <t>MA-001 Tut-9 Solution.pdf</t>
-  </si>
-  <si>
-    <t>Tut 9</t>
-  </si>
-  <si>
-    <t>2014-11-13 11:47:12</t>
-  </si>
-  <si>
-    <t>CE-564 Solution ETE Autumn 2014.pdf</t>
-  </si>
-  <si>
-    <t>ETE 2014</t>
-  </si>
-  <si>
-    <t>2014-11-15 17:47:28</t>
-  </si>
-  <si>
-    <t>CY-521</t>
-  </si>
-  <si>
-    <t>CY-521 msc_1styear_autumn_2014ETE_answers.pdf</t>
-  </si>
-  <si>
-    <t>Thermodynamics and surface chemistry</t>
-  </si>
-  <si>
-    <t>2014-11-20 11:59:03</t>
-  </si>
-  <si>
-    <t>CY-001 cy001_ete_autumn2014_answers(1).pdf</t>
-  </si>
-  <si>
-    <t>Autumn 2014 ETE Quantum Mechanics Part Answers</t>
-  </si>
-  <si>
-    <t>2014-11-21 10:25:36</t>
-  </si>
-  <si>
-    <t>PH-001 notice_ETE.pdf</t>
-  </si>
-  <si>
-    <t>Notice about ETE answer sheets</t>
-  </si>
-  <si>
-    <t>2014-11-21 18:11:10</t>
-  </si>
-  <si>
-    <t>EC-101 Solution ETE-Aut2014.pdf</t>
-  </si>
-  <si>
-    <t>2014-11-21 18:55:05</t>
-  </si>
-  <si>
-    <t>EC-202 203_ete_2014_soln.pdf</t>
-  </si>
-  <si>
-    <t>ETE SOLUTIONS</t>
-  </si>
-  <si>
-    <t>2014-11-23 17:31:52</t>
-  </si>
-  <si>
-    <t>HSS-02</t>
-  </si>
-  <si>
-    <t>HSS-02 HSS-02 notice for seeing answer scripts.docx</t>
-  </si>
-  <si>
-    <t>endsem answer scripts</t>
-  </si>
-  <si>
-    <t>2014-11-23 22:59:41</t>
-  </si>
-  <si>
-    <t>HS-001A</t>
-  </si>
-  <si>
-    <t>HS-001A ETE COPIES DISPLAY.docx</t>
-  </si>
-  <si>
-    <t>ETE COPIES DISPLAY</t>
-  </si>
-  <si>
-    <t>2014-11-25 18:06:56</t>
-  </si>
-  <si>
-    <t>suryafce</t>
-  </si>
-  <si>
-    <t>CE-205 CE-205_Final_ans.pdf</t>
-  </si>
-  <si>
-    <t>CE 205 final eam answer key</t>
-  </si>
-  <si>
-    <t>2014-11-27 11:37:32</t>
-  </si>
-  <si>
-    <t>IHS-04 IHS-04.xlsx</t>
-  </si>
-  <si>
-    <t>FINAL GRADES AUTUMN 2014</t>
-  </si>
-  <si>
-    <t>2014-11-30 12:27:01</t>
-  </si>
-  <si>
-    <t>vipulfeq</t>
-  </si>
-  <si>
-    <t>CE-206</t>
-  </si>
-  <si>
-    <t>CE-206 CEN206Tutorial1Solved.pdf</t>
-  </si>
-  <si>
-    <t>Tutorial 1 Influence LInes</t>
-  </si>
-  <si>
-    <t>2015-01-07 09:37:57</t>
-  </si>
-  <si>
-    <t>bhardfmt</t>
-  </si>
-  <si>
-    <t>MT-321</t>
-  </si>
-  <si>
-    <t>MT-321 MT321 - AnsEndTerm.doc</t>
-  </si>
-  <si>
-    <t>End Term Ans</t>
-  </si>
-  <si>
-    <t>2015-01-19 16:31:31</t>
-  </si>
-  <si>
-    <t>CE-202</t>
-  </si>
-  <si>
-    <t>CE-202 Answers Tutorial 1.pdf</t>
-  </si>
-  <si>
-    <t>Answers to Tutorial 1</t>
-  </si>
-  <si>
-    <t>2015-01-25 23:20:15</t>
-  </si>
-  <si>
-    <t>CEN-206</t>
-  </si>
-  <si>
-    <t>CEN-206 STRANAIITut3Solutions.pdf</t>
-  </si>
-  <si>
-    <t>Tutorial 3 Solutions</t>
-  </si>
-  <si>
-    <t>2015-02-17 19:43:27</t>
-  </si>
-  <si>
-    <t>CEN-206 STRANAIITut2Solutions.pdf</t>
-  </si>
-  <si>
-    <t>Tutorial 2  Influence Lines</t>
-  </si>
-  <si>
-    <t>2015-02-17 19:43:48</t>
-  </si>
-  <si>
-    <t>karunfec</t>
-  </si>
-  <si>
-    <t>EC-102KR</t>
-  </si>
-  <si>
-    <t>EC-102KR Tutorial 1a_solutions.pdf</t>
-  </si>
-  <si>
-    <t>Tutorial1a Solutions</t>
-  </si>
-  <si>
-    <t>2015-02-21 13:32:06</t>
-  </si>
-  <si>
-    <t>EC-102 tutorial 1b_solutions.pdf</t>
-  </si>
-  <si>
-    <t>Tutorial1b Solutions</t>
-  </si>
-  <si>
-    <t>2015-02-21 13:32:45</t>
-  </si>
-  <si>
-    <t>CE-202 Answers Tutorial 2.pdf</t>
-  </si>
-  <si>
-    <t>Answer Tutorial  2</t>
-  </si>
-  <si>
-    <t>2015-02-22 20:37:06</t>
-  </si>
-  <si>
-    <t>prmdkfce</t>
-  </si>
-  <si>
-    <t>CE-394</t>
-  </si>
-  <si>
-    <t>CE-394 CE-394 T1 Solution.pdf</t>
-  </si>
-  <si>
-    <t>2015-02-23 17:12:30</t>
-  </si>
-  <si>
-    <t>CE-202 Answers tutorial  4.pdf</t>
-  </si>
-  <si>
-    <t>Answer Tutorial   4</t>
-  </si>
-  <si>
-    <t>2015-02-24 08:17:54</t>
-  </si>
-  <si>
-    <t>CE-202 Answers Tutorial  3.pdf</t>
-  </si>
-  <si>
-    <t>Answers Tutorial 3</t>
-  </si>
-  <si>
-    <t>2015-02-24 08:19:32</t>
-  </si>
-  <si>
-    <t>CEN-206 CEN206Tutorial4SolutionByMomentDistributionMethod001.pdf</t>
-  </si>
-  <si>
-    <t>Tutorial 4 By Moment Distribution Methods</t>
-  </si>
-  <si>
-    <t>2015-02-24 14:48:20</t>
-  </si>
-  <si>
-    <t>CY-008 tutorial1_solution(1).pdf</t>
-  </si>
-  <si>
-    <t>Tutorial-1 solution</t>
-  </si>
-  <si>
-    <t>2015-02-25 10:39:59</t>
-  </si>
-  <si>
-    <t>sarkhel.fph</t>
-  </si>
-  <si>
-    <t>PHN-008</t>
-  </si>
-  <si>
-    <t>PHN-008 Answers for Tut 1 2 and 3.pdf</t>
-  </si>
-  <si>
-    <t>Answers for Tut 1  2 and 3</t>
-  </si>
-  <si>
-    <t>2015-02-25 17:31:05</t>
-  </si>
-  <si>
-    <t>CE-394 CE-394 T2 Solution.pdf</t>
-  </si>
-  <si>
-    <t>TUTORIAL 2 SOLUTION</t>
-  </si>
-  <si>
-    <t>2015-02-27 17:08:44</t>
-  </si>
-  <si>
-    <t>sadhufcy</t>
-  </si>
-  <si>
-    <t>CY-752</t>
-  </si>
-  <si>
-    <t>CY-752 MTE of CY-752(1).pdf</t>
-  </si>
-  <si>
-    <t>Analysis of Food and Drugs</t>
-  </si>
-  <si>
-    <t>2015-03-02 12:42:23</t>
-  </si>
-  <si>
-    <t>aydeofph</t>
-  </si>
-  <si>
-    <t>PHN-202</t>
-  </si>
-  <si>
-    <t>PHN-202 Solutions_MTE_PH202_Spring2015.pdf</t>
-  </si>
-  <si>
-    <t>2015-03-10 12:36:43</t>
-  </si>
-  <si>
-    <t>sonarfce</t>
-  </si>
-  <si>
-    <t>CE-354</t>
-  </si>
-  <si>
-    <t>CE-354 CE 354_MTE-Solution.pdf</t>
-  </si>
-  <si>
-    <t>MTE Solutions  Design of steel elements </t>
-  </si>
-  <si>
-    <t>2015-03-10 15:16:47</t>
-  </si>
-  <si>
-    <t>MI-110 MTE paper &amp; solution.pdf</t>
-  </si>
-  <si>
-    <t>MTE</t>
-  </si>
-  <si>
-    <t>2015-03-20 18:04:45</t>
-  </si>
-  <si>
-    <t>pkjchfch</t>
-  </si>
-  <si>
-    <t>CHN-210</t>
-  </si>
-  <si>
-    <t>CHN-210 MIDTERM_AnswerKey.pdf</t>
-  </si>
-  <si>
-    <t>Mid Term Answer Key</t>
-  </si>
-  <si>
-    <t>2015-03-22 01:05:38</t>
-  </si>
-  <si>
-    <t>CHN-210 CHN_210_MidTerm.pdf</t>
-  </si>
-  <si>
-    <t>Mid Term Scores</t>
-  </si>
-  <si>
-    <t>2015-03-22 01:06:29</t>
-  </si>
-  <si>
-    <t>CEN-102</t>
-  </si>
-  <si>
-    <t>CEN-102 Ans_MTE_CE-102_Q1_Q2.pdf</t>
-  </si>
-  <si>
-    <t>MTE-102 Solution  Q1 Q2</t>
-  </si>
-  <si>
-    <t>2015-03-27 18:18:38</t>
-  </si>
-  <si>
-    <t>drap1fme</t>
-  </si>
-  <si>
-    <t>MIN-212</t>
-  </si>
-  <si>
-    <t>MIN-212 Final_Marks.xls</t>
-  </si>
-  <si>
-    <t>Practical</t>
-  </si>
-  <si>
-    <t>2015-04-13 12:49:56</t>
+    <t>PH-005 Prob8_Tut3.jpg</t>
+  </si>
+  <si>
+    <t>Tut3-Problem8  Part </t>
+  </si>
+  <si>
+    <t>2015-09-18 18:51:00</t>
+  </si>
+  <si>
+    <t>ravikfme</t>
+  </si>
+  <si>
+    <t>MIN-305</t>
+  </si>
+  <si>
+    <t>MIN-305 Tutorials- answer Key.pdf</t>
+  </si>
+  <si>
+    <t>Tutorials  Answer Key</t>
+  </si>
+  <si>
+    <t>2015-09-18 22:37:33</t>
+  </si>
+  <si>
+    <t>MA-303 Tut 4 solution.jpeg</t>
+  </si>
+  <si>
+    <t>Differential Transformation</t>
+  </si>
+  <si>
+    <t>2015-09-19 19:30:04</t>
+  </si>
+  <si>
+    <t>CHN-201 Solution_Tutorial _7.pdf</t>
+  </si>
+  <si>
+    <t>Solution Tutorial 7</t>
+  </si>
+  <si>
+    <t>2015-09-20 20:15:55</t>
+  </si>
+  <si>
+    <t>akdasfme</t>
+  </si>
+  <si>
+    <t>MI-407</t>
+  </si>
+  <si>
+    <t>MI-407 mid sem qp ans.pdf</t>
+  </si>
+  <si>
+    <t>Mid Sem Model Answer</t>
+  </si>
+  <si>
+    <t>2015-09-21 21:40:09</t>
+  </si>
+  <si>
+    <t>MI-407 mid sem qp ans(1).pdf</t>
+  </si>
+  <si>
+    <t>CE-564 MTE2015_Paper&amp;Solutions.pdf</t>
+  </si>
+  <si>
+    <t>MTE 2015 Solutions</t>
+  </si>
+  <si>
+    <t>2015-09-23 14:29:27</t>
+  </si>
+  <si>
+    <t>bholafce</t>
+  </si>
+  <si>
+    <t>CRN-105</t>
+  </si>
+  <si>
+    <t>CRN-105 1.CE-105_MTE_Q&amp;A(Aut.2015-16).pdf</t>
+  </si>
+  <si>
+    <t>Intro to Env  Studies</t>
+  </si>
+  <si>
+    <t>2015-09-24 00:44:22</t>
   </si>
 </sst>
 </file>
@@ -1696,3342 +1753,3330 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I143"/>
+  <dimension ref="A1:I149"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D38" activeCellId="0" sqref="D38"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.47959183673469"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.4591836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.35204081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.0459183673469"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="59.0918367346939"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="51.3163265306122"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.3214285714286"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="35.8877551020408"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="2.53571428571429"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.9642857142857"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.79081632653061"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.71428571428571"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="3.37244897959184"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.46428571428571"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
+      <c r="A1" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="B1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>6</v>
-      </c>
       <c r="H1" s="0" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="D2" s="0" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="D3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>15</v>
-      </c>
       <c r="E3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="H3" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="F5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="H5" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="H7" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>46</v>
+        <v>40</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>41</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>47</v>
+        <v>42</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>43</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="H12" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H15" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>102</v>
+        <v>46</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>112</v>
+        <v>8</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F33" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>55</v>
+        <v>119</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="H34" s="0" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>17</v>
+        <v>123</v>
       </c>
       <c r="C35" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="E35" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="D35" s="0" t="s">
+      <c r="F35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E35" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="F35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="H35" s="0" t="s">
-        <v>14</v>
-      </c>
       <c r="I35" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="B36" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="D36" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="C36" s="0" t="s">
+      <c r="E36" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="D36" s="0" t="s">
+      <c r="F36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E36" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="F36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="H36" s="0" t="s">
-        <v>14</v>
-      </c>
       <c r="I36" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="B37" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D37" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="C37" s="0" t="s">
+      <c r="E37" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="D37" s="0" t="s">
+      <c r="F37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E37" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="F37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="I37" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="F38" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F39" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="F40" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="B41" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C41" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="D41" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="E41" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="F41" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="I41" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F42" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="n">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>148</v>
+        <v>45</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>155</v>
+        <v>46</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="F43" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="n">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>148</v>
+        <v>45</v>
       </c>
       <c r="C44" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D44" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="D44" s="0" t="s">
-        <v>162</v>
-      </c>
       <c r="E44" s="0" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="F44" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="n">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>148</v>
+        <v>45</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>155</v>
+        <v>46</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="F45" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="n">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="F46" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="n">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>55</v>
+        <v>164</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="F47" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="n">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>54</v>
+        <v>168</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F48" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="I48" s="0" t="s">
-        <v>14</v>
+        <v>171</v>
+      </c>
+      <c r="H48" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="I48" s="0" t="n">
+        <v>79</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="n">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>33</v>
+        <v>168</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F49" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="I49" s="0" t="s">
-        <v>14</v>
+        <v>175</v>
+      </c>
+      <c r="H49" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="I49" s="0" t="n">
+        <v>81</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="n">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>180</v>
+        <v>46</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F50" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="n">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>184</v>
+        <v>45</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F51" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="H51" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="I51" s="0" t="n">
-        <v>79</v>
+        <v>181</v>
+      </c>
+      <c r="I51" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="n">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B52" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="F52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C52" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D52" s="0" t="s">
-        <v>189</v>
-      </c>
-      <c r="E52" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="F52" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="H52" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="I52" s="0" t="n">
-        <v>81</v>
+      <c r="I52" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="n">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>54</v>
+        <v>185</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>55</v>
+        <v>186</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F53" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="n">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>54</v>
+        <v>132</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>55</v>
+        <v>133</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F54" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="n">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>54</v>
+        <v>168</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F55" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="n">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>201</v>
+        <v>168</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>202</v>
+        <v>20</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="F56" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="I56" s="0" t="s">
-        <v>14</v>
+        <v>198</v>
+      </c>
+      <c r="H56" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="I56" s="0" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="n">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>149</v>
+        <v>20</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="F57" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="I57" s="0" t="s">
-        <v>14</v>
+        <v>201</v>
+      </c>
+      <c r="H57" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="I57" s="0" t="n">
+        <v>91</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="n">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>184</v>
+        <v>24</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="F58" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="I58" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="n">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>184</v>
+        <v>45</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="F59" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="H59" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="I59" s="0" t="n">
-        <v>90</v>
+        <v>207</v>
+      </c>
+      <c r="I59" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="n">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>184</v>
+        <v>45</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="F60" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="H60" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="I60" s="0" t="n">
-        <v>91</v>
+        <v>210</v>
+      </c>
+      <c r="I60" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="n">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>33</v>
+        <v>211</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>34</v>
+        <v>212</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F61" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="I61" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="n">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>54</v>
+        <v>132</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>55</v>
+        <v>139</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>222</v>
+        <v>191</v>
       </c>
       <c r="F62" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="I62" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="n">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>54</v>
+        <v>218</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>55</v>
+        <v>219</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F63" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="I63" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="n">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>227</v>
+        <v>45</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>228</v>
+        <v>46</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="F64" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="I64" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="n">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>148</v>
+        <v>45</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>155</v>
+        <v>46</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="F65" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="I65" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="n">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F66" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="I66" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="n">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>54</v>
+        <v>234</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>55</v>
+        <v>235</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F67" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="I67" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="n">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>55</v>
+        <v>239</v>
       </c>
       <c r="D68" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="E68" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="F68" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="E68" s="0" t="s">
-        <v>243</v>
-      </c>
-      <c r="F68" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="I68" s="0" t="s">
-        <v>14</v>
+      <c r="H68" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="I68" s="0" t="n">
+        <v>112</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="n">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="B69" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="D69" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="E69" s="0" t="s">
         <v>245</v>
       </c>
-      <c r="C69" s="0" t="s">
+      <c r="F69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="D69" s="0" t="s">
-        <v>247</v>
-      </c>
-      <c r="E69" s="0" t="s">
-        <v>248</v>
-      </c>
-      <c r="F69" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>249</v>
-      </c>
       <c r="I69" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="n">
-        <v>188</v>
+        <v>219</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>250</v>
+        <v>45</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F70" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="I70" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="n">
-        <v>193</v>
+        <v>227</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>54</v>
+        <v>250</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F71" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="H71" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="I71" s="0" t="n">
-        <v>112</v>
+        <v>254</v>
+      </c>
+      <c r="I71" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="n">
-        <v>202</v>
+        <v>235</v>
       </c>
       <c r="B72" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="D72" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="E72" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="F72" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="C72" s="0" t="s">
-        <v>228</v>
-      </c>
-      <c r="D72" s="0" t="s">
-        <v>260</v>
-      </c>
-      <c r="E72" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="F72" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>262</v>
-      </c>
       <c r="I72" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="n">
-        <v>203</v>
+        <v>236</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>112</v>
+        <v>255</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F73" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="I73" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="n">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>54</v>
+        <v>255</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F74" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="I74" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="n">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="F75" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="I75" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="n">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="F76" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="I76" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="n">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="B77" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="C77" s="0" t="s">
         <v>270</v>
       </c>
-      <c r="C77" s="0" t="s">
-        <v>280</v>
-      </c>
       <c r="D77" s="0" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="F77" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="H77" s="0" t="s">
-        <v>284</v>
-      </c>
-      <c r="I77" s="0" t="n">
-        <v>831</v>
+        <v>276</v>
+      </c>
+      <c r="I77" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="n">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="B78" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="C78" s="0" t="s">
         <v>270</v>
       </c>
-      <c r="C78" s="0" t="s">
-        <v>280</v>
-      </c>
       <c r="D78" s="0" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="F78" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="H78" s="0" t="s">
-        <v>284</v>
-      </c>
-      <c r="I78" s="0" t="n">
-        <v>845</v>
+        <v>279</v>
+      </c>
+      <c r="I78" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="n">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>289</v>
+        <v>139</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="F79" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="I79" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="n">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>288</v>
+        <v>255</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>289</v>
+        <v>256</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="F80" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="I80" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="n">
-        <v>240</v>
+        <v>271</v>
       </c>
       <c r="B81" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="C81" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="D81" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="E81" s="0" t="s">
         <v>288</v>
       </c>
-      <c r="C81" s="0" t="s">
+      <c r="F81" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="D81" s="0" t="s">
-        <v>296</v>
-      </c>
-      <c r="E81" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="F81" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>298</v>
-      </c>
       <c r="I81" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="n">
-        <v>242</v>
+        <v>273</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>288</v>
+        <v>45</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="F82" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="I82" s="0" t="s">
-        <v>14</v>
+        <v>293</v>
+      </c>
+      <c r="H82" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="I82" s="0" t="n">
+        <v>125</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="n">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>302</v>
+        <v>50</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="F83" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="I83" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="n">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>302</v>
+        <v>50</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="F84" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="I84" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="n">
-        <v>252</v>
+        <v>280</v>
       </c>
       <c r="B85" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C85" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="D85" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="E85" s="0" t="s">
         <v>302</v>
       </c>
-      <c r="C85" s="0" t="s">
+      <c r="F85" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="D85" s="0" t="s">
-        <v>310</v>
-      </c>
-      <c r="E85" s="0" t="s">
-        <v>311</v>
-      </c>
-      <c r="F85" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>312</v>
-      </c>
       <c r="I85" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="n">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>270</v>
+        <v>50</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="F86" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="H86" s="0" t="s">
-        <v>284</v>
-      </c>
-      <c r="I86" s="0" t="n">
-        <v>895</v>
+        <v>306</v>
+      </c>
+      <c r="I86" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="n">
-        <v>255</v>
+        <v>284</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>316</v>
+        <v>0</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>155</v>
+        <v>307</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="F87" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="I87" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="n">
-        <v>256</v>
+        <v>285</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>288</v>
+        <v>311</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>289</v>
+        <v>312</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="F88" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="I88" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="n">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>288</v>
+        <v>316</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>289</v>
+        <v>317</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="F89" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="I89" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="n">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>54</v>
+        <v>321</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F90" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="H90" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="I90" s="0" t="n">
-        <v>125</v>
+        <v>325</v>
+      </c>
+      <c r="I90" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="n">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>59</v>
+        <v>326</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>330</v>
+        <v>256</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="F91" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="I91" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="n">
-        <v>279</v>
+        <v>301</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>59</v>
+        <v>255</v>
       </c>
       <c r="C92" s="0" t="s">
         <v>330</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F92" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="I92" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="n">
-        <v>280</v>
+        <v>304</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>59</v>
+        <v>255</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>330</v>
+        <v>256</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E93" s="0" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F93" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="I93" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="n">
-        <v>281</v>
+        <v>305</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>59</v>
+        <v>255</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>330</v>
+        <v>256</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E94" s="0" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F94" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="I94" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="n">
-        <v>282</v>
+        <v>306</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>28</v>
+        <v>255</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>343</v>
+        <v>256</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E95" s="0" t="s">
-        <v>146</v>
+        <v>341</v>
       </c>
       <c r="F95" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="I95" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="n">
-        <v>284</v>
+        <v>307</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>9</v>
+        <v>255</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>346</v>
+        <v>256</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="E96" s="0" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="F96" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I96" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="n">
-        <v>285</v>
+        <v>308</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>350</v>
+        <v>255</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>351</v>
+        <v>256</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="E97" s="0" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="F97" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="I97" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="n">
-        <v>286</v>
+        <v>310</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>355</v>
+        <v>45</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>356</v>
+        <v>290</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="E98" s="0" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="F98" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="I98" s="0" t="s">
-        <v>14</v>
+        <v>351</v>
+      </c>
+      <c r="H98" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="I98" s="0" t="n">
+        <v>137</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="n">
-        <v>287</v>
+        <v>322</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="E99" s="0" t="s">
-        <v>363</v>
+        <v>214</v>
       </c>
       <c r="F99" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="I99" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="n">
-        <v>290</v>
+        <v>326</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>365</v>
+        <v>218</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="E100" s="0" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="F100" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="I100" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="n">
-        <v>291</v>
+        <v>327</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>370</v>
+        <v>311</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="E101" s="0" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="F101" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="I101" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="n">
-        <v>293</v>
+        <v>328</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>361</v>
+        <v>317</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="E102" s="0" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="F102" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="I102" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="n">
-        <v>297</v>
+        <v>329</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>28</v>
+        <v>218</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>343</v>
+        <v>219</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="E103" s="0" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="F103" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="I103" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="n">
-        <v>298</v>
+        <v>330</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>289</v>
+        <v>370</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="E104" s="0" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="F104" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="I104" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="n">
-        <v>301</v>
+        <v>332</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>288</v>
+        <v>132</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="E105" s="0" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="F105" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="I105" s="0" t="s">
-        <v>14</v>
+        <v>377</v>
+      </c>
+      <c r="H105" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="I105" s="0" t="n">
+        <v>1047</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="n">
-        <v>304</v>
+        <v>334</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>288</v>
+        <v>369</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>289</v>
+        <v>379</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="E106" s="0" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="F106" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="I106" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="n">
-        <v>305</v>
+        <v>335</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>288</v>
+        <v>369</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>289</v>
+        <v>379</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="F107" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="I107" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="n">
-        <v>306</v>
+        <v>336</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>288</v>
+        <v>386</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>289</v>
+        <v>387</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="E108" s="0" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="F108" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="I108" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="n">
-        <v>307</v>
+        <v>337</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>288</v>
+        <v>386</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>289</v>
+        <v>41</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="E109" s="0" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="F109" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="I109" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="n">
-        <v>308</v>
+        <v>338</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>288</v>
+        <v>132</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>289</v>
+        <v>374</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="E110" s="0" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="F110" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="I110" s="0" t="s">
-        <v>14</v>
+        <v>396</v>
+      </c>
+      <c r="H110" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="I110" s="0" t="n">
+        <v>1058</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="n">
-        <v>310</v>
+        <v>340</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>54</v>
+        <v>132</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>326</v>
+        <v>374</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="E111" s="0" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="F111" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="H111" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="I111" s="0" t="n">
-        <v>137</v>
+        <v>399</v>
+      </c>
+      <c r="I111" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="n">
-        <v>315</v>
+        <v>341</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>270</v>
+        <v>132</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>407</v>
+        <v>374</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="E112" s="0" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="F112" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="H112" s="0" t="s">
-        <v>188</v>
+        <v>378</v>
       </c>
       <c r="I112" s="0" t="n">
-        <v>140</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="n">
-        <v>318</v>
+        <v>342</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>270</v>
+        <v>369</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>280</v>
+        <v>379</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="E113" s="0" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="F113" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="I113" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="n">
-        <v>321</v>
+        <v>344</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>355</v>
+        <v>406</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>356</v>
+        <v>407</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="E114" s="0" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="F114" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="I114" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="n">
-        <v>322</v>
+        <v>348</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>346</v>
+        <v>412</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E115" s="0" t="s">
-        <v>230</v>
+        <v>414</v>
       </c>
       <c r="F115" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="I115" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="n">
-        <v>325</v>
+        <v>353</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>343</v>
+        <v>416</v>
       </c>
       <c r="D116" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="E116" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="F116" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G116" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="E116" s="0" t="s">
-        <v>420</v>
-      </c>
-      <c r="F116" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G116" s="1" t="s">
-        <v>421</v>
-      </c>
       <c r="I116" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="n">
-        <v>326</v>
+        <v>358</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>234</v>
+        <v>321</v>
       </c>
       <c r="C117" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="D117" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="E117" s="0" t="s">
         <v>422</v>
       </c>
-      <c r="D117" s="0" t="s">
+      <c r="F117" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G117" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="E117" s="0" t="s">
-        <v>424</v>
-      </c>
-      <c r="F117" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G117" s="1" t="s">
-        <v>425</v>
-      </c>
       <c r="I117" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="n">
-        <v>327</v>
+        <v>362</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>350</v>
+        <v>424</v>
       </c>
       <c r="C118" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="D118" s="0" t="s">
         <v>426</v>
       </c>
-      <c r="D118" s="0" t="s">
+      <c r="E118" s="0" t="s">
         <v>427</v>
       </c>
-      <c r="E118" s="0" t="s">
+      <c r="F118" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G118" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="F118" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G118" s="1" t="s">
-        <v>429</v>
-      </c>
       <c r="I118" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="n">
-        <v>328</v>
+        <v>363</v>
       </c>
       <c r="B119" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="C119" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="D119" s="0" t="s">
         <v>430</v>
       </c>
-      <c r="C119" s="0" t="s">
-        <v>366</v>
-      </c>
-      <c r="D119" s="0" t="s">
+      <c r="E119" s="0" t="s">
         <v>431</v>
       </c>
-      <c r="E119" s="0" t="s">
+      <c r="F119" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G119" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="F119" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G119" s="1" t="s">
-        <v>433</v>
-      </c>
       <c r="I119" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="n">
-        <v>329</v>
+        <v>382</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>234</v>
+        <v>433</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>235</v>
+        <v>434</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E120" s="0" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F120" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="I120" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="n">
-        <v>330</v>
+        <v>383</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E121" s="0" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F121" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="I121" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="n">
-        <v>331</v>
+        <v>384</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E122" s="0" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F122" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="I122" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="n">
-        <v>332</v>
+        <v>385</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>148</v>
+        <v>443</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D123" s="0" t="s">
         <v>448</v>
@@ -5045,19 +5090,16 @@
       <c r="G123" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="H123" s="0" t="s">
-        <v>284</v>
-      </c>
-      <c r="I123" s="0" t="n">
-        <v>1047</v>
+      <c r="I123" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="n">
-        <v>334</v>
+        <v>387</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>437</v>
+        <v>255</v>
       </c>
       <c r="C124" s="0" t="s">
         <v>451</v>
@@ -5075,15 +5117,15 @@
         <v>454</v>
       </c>
       <c r="I124" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="n">
-        <v>335</v>
+        <v>388</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>437</v>
+        <v>255</v>
       </c>
       <c r="C125" s="0" t="s">
         <v>451</v>
@@ -5092,490 +5134,643 @@
         <v>455</v>
       </c>
       <c r="E125" s="0" t="s">
+        <v>453</v>
+      </c>
+      <c r="F125" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G125" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="F125" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G125" s="1" t="s">
-        <v>457</v>
-      </c>
       <c r="I125" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="n">
-        <v>336</v>
+        <v>390</v>
       </c>
       <c r="B126" s="0" t="s">
+        <v>457</v>
+      </c>
+      <c r="C126" s="0" t="s">
         <v>458</v>
       </c>
-      <c r="C126" s="0" t="s">
+      <c r="D126" s="0" t="s">
         <v>459</v>
       </c>
-      <c r="D126" s="0" t="s">
+      <c r="E126" s="0" t="s">
         <v>460</v>
       </c>
-      <c r="E126" s="0" t="s">
+      <c r="F126" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G126" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="F126" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G126" s="1" t="s">
-        <v>462</v>
-      </c>
       <c r="I126" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="n">
-        <v>337</v>
+        <v>391</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>458</v>
+        <v>255</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>50</v>
+        <v>451</v>
       </c>
       <c r="D127" s="0" t="s">
+        <v>462</v>
+      </c>
+      <c r="E127" s="0" t="s">
         <v>463</v>
       </c>
-      <c r="E127" s="0" t="s">
+      <c r="F127" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G127" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="F127" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G127" s="1" t="s">
-        <v>465</v>
-      </c>
       <c r="I127" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="n">
-        <v>338</v>
+        <v>392</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>148</v>
+        <v>255</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="D128" s="0" t="s">
+        <v>465</v>
+      </c>
+      <c r="E128" s="0" t="s">
         <v>466</v>
       </c>
-      <c r="E128" s="0" t="s">
+      <c r="F128" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G128" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="F128" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G128" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="H128" s="0" t="s">
-        <v>284</v>
-      </c>
-      <c r="I128" s="0" t="n">
-        <v>1058</v>
+      <c r="I128" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="n">
-        <v>339</v>
+        <v>393</v>
       </c>
       <c r="B129" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="C129" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="D129" s="0" t="s">
+        <v>468</v>
+      </c>
+      <c r="E129" s="0" t="s">
         <v>469</v>
       </c>
-      <c r="C129" s="0" t="s">
+      <c r="F129" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G129" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="D129" s="0" t="s">
-        <v>471</v>
-      </c>
-      <c r="E129" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="F129" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G129" s="1" t="s">
-        <v>472</v>
-      </c>
       <c r="I129" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="n">
-        <v>340</v>
+        <v>395</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>148</v>
+        <v>443</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D130" s="0" t="s">
+        <v>471</v>
+      </c>
+      <c r="E130" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="F130" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G130" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="E130" s="0" t="s">
-        <v>474</v>
-      </c>
-      <c r="F130" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G130" s="1" t="s">
-        <v>475</v>
-      </c>
       <c r="I130" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="n">
-        <v>341</v>
+        <v>396</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>148</v>
+        <v>443</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D131" s="0" t="s">
+        <v>474</v>
+      </c>
+      <c r="E131" s="0" t="s">
+        <v>475</v>
+      </c>
+      <c r="F131" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G131" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="E131" s="0" t="s">
-        <v>477</v>
-      </c>
-      <c r="F131" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G131" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="H131" s="0" t="s">
-        <v>284</v>
-      </c>
-      <c r="I131" s="0" t="n">
-        <v>1073</v>
+      <c r="I131" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="n">
-        <v>342</v>
+        <v>397</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="D132" s="0" t="s">
+        <v>477</v>
+      </c>
+      <c r="E132" s="0" t="s">
+        <v>478</v>
+      </c>
+      <c r="F132" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G132" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="E132" s="0" t="s">
-        <v>480</v>
-      </c>
-      <c r="F132" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G132" s="1" t="s">
-        <v>481</v>
-      </c>
       <c r="I132" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="n">
-        <v>343</v>
+        <v>398</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>270</v>
+        <v>443</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>271</v>
+        <v>444</v>
       </c>
       <c r="D133" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="E133" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="F133" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G133" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="E133" s="0" t="s">
-        <v>483</v>
-      </c>
-      <c r="F133" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G133" s="1" t="s">
-        <v>484</v>
-      </c>
       <c r="I133" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="n">
-        <v>344</v>
+        <v>400</v>
       </c>
       <c r="B134" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="C134" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="D134" s="0" t="s">
+        <v>484</v>
+      </c>
+      <c r="E134" s="0" t="s">
         <v>485</v>
       </c>
-      <c r="C134" s="0" t="s">
+      <c r="F134" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G134" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="D134" s="0" t="s">
-        <v>487</v>
-      </c>
-      <c r="E134" s="0" t="s">
-        <v>488</v>
-      </c>
-      <c r="F134" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G134" s="1" t="s">
-        <v>489</v>
-      </c>
       <c r="I134" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="n">
-        <v>345</v>
+        <v>401</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>469</v>
+        <v>487</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="D135" s="0" t="s">
+        <v>489</v>
+      </c>
+      <c r="E135" s="0" t="s">
         <v>490</v>
       </c>
-      <c r="E135" s="0" t="s">
+      <c r="F135" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G135" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="F135" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G135" s="1" t="s">
-        <v>492</v>
-      </c>
       <c r="I135" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="n">
-        <v>346</v>
+        <v>402</v>
       </c>
       <c r="B136" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="C136" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="D136" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="E136" s="0" t="s">
         <v>493</v>
       </c>
-      <c r="C136" s="0" t="s">
+      <c r="F136" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G136" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="D136" s="0" t="s">
-        <v>495</v>
-      </c>
-      <c r="E136" s="0" t="s">
-        <v>496</v>
-      </c>
-      <c r="F136" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G136" s="1" t="s">
-        <v>497</v>
-      </c>
       <c r="I136" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="n">
-        <v>347</v>
+        <v>403</v>
       </c>
       <c r="B137" s="0" t="s">
+        <v>495</v>
+      </c>
+      <c r="C137" s="0" t="s">
+        <v>496</v>
+      </c>
+      <c r="D137" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="E137" s="0" t="s">
         <v>498</v>
       </c>
-      <c r="C137" s="0" t="s">
+      <c r="F137" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G137" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="D137" s="0" t="s">
-        <v>500</v>
-      </c>
-      <c r="E137" s="0" t="s">
-        <v>363</v>
-      </c>
-      <c r="F137" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G137" s="1" t="s">
-        <v>501</v>
-      </c>
       <c r="I137" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="n">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="B138" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="C138" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="D138" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="E138" s="0" t="s">
         <v>502</v>
       </c>
-      <c r="C138" s="0" t="s">
+      <c r="F138" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G138" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="D138" s="0" t="s">
-        <v>504</v>
-      </c>
-      <c r="E138" s="0" t="s">
-        <v>505</v>
-      </c>
-      <c r="F138" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G138" s="1" t="s">
-        <v>506</v>
-      </c>
       <c r="I138" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="n">
-        <v>349</v>
+        <v>405</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>112</v>
+        <v>504</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>263</v>
+        <v>505</v>
       </c>
       <c r="D139" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="E139" s="0" t="s">
         <v>507</v>
       </c>
-      <c r="E139" s="0" t="s">
+      <c r="F139" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G139" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="F139" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G139" s="1" t="s">
-        <v>509</v>
-      </c>
       <c r="I139" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="n">
-        <v>351</v>
+        <v>406</v>
       </c>
       <c r="B140" s="0" t="s">
+        <v>509</v>
+      </c>
+      <c r="C140" s="0" t="s">
+        <v>496</v>
+      </c>
+      <c r="D140" s="0" t="s">
         <v>510</v>
       </c>
-      <c r="C140" s="0" t="s">
+      <c r="E140" s="0" t="s">
         <v>511</v>
       </c>
-      <c r="D140" s="0" t="s">
+      <c r="F140" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G140" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="E140" s="0" t="s">
-        <v>513</v>
-      </c>
-      <c r="F140" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G140" s="1" t="s">
-        <v>514</v>
-      </c>
       <c r="I140" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="n">
-        <v>352</v>
+        <v>408</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="D141" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="E141" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="F141" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G141" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="E141" s="0" t="s">
-        <v>516</v>
-      </c>
-      <c r="F141" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G141" s="1" t="s">
-        <v>517</v>
-      </c>
       <c r="I141" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="n">
-        <v>353</v>
+        <v>409</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>101</v>
+        <v>516</v>
       </c>
       <c r="C142" s="0" t="s">
+        <v>517</v>
+      </c>
+      <c r="D142" s="0" t="s">
         <v>518</v>
       </c>
-      <c r="D142" s="0" t="s">
+      <c r="E142" s="0" t="s">
         <v>519</v>
       </c>
-      <c r="E142" s="0" t="s">
+      <c r="F142" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G142" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="F142" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G142" s="1" t="s">
-        <v>521</v>
-      </c>
       <c r="I142" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="n">
-        <v>354</v>
+        <v>410</v>
       </c>
       <c r="B143" s="0" t="s">
+        <v>521</v>
+      </c>
+      <c r="C143" s="0" t="s">
         <v>522</v>
       </c>
-      <c r="C143" s="0" t="s">
+      <c r="D143" s="0" t="s">
         <v>523</v>
       </c>
-      <c r="D143" s="0" t="s">
+      <c r="E143" s="0" t="s">
         <v>524</v>
       </c>
-      <c r="E143" s="0" t="s">
+      <c r="F143" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G143" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="F143" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G143" s="1" t="s">
+      <c r="I143" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="0" t="n">
+        <v>411</v>
+      </c>
+      <c r="B144" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="C144" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="D144" s="0" t="s">
         <v>526</v>
       </c>
-      <c r="I143" s="0" t="s">
-        <v>14</v>
+      <c r="E144" s="0" t="s">
+        <v>527</v>
+      </c>
+      <c r="F144" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="I144" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="0" t="n">
+        <v>412</v>
+      </c>
+      <c r="B145" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="C145" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="D145" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="E145" s="0" t="s">
+        <v>530</v>
+      </c>
+      <c r="F145" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="I145" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="0" t="n">
+        <v>413</v>
+      </c>
+      <c r="B146" s="0" t="s">
+        <v>532</v>
+      </c>
+      <c r="C146" s="0" t="s">
+        <v>533</v>
+      </c>
+      <c r="D146" s="0" t="s">
+        <v>534</v>
+      </c>
+      <c r="E146" s="0" t="s">
+        <v>535</v>
+      </c>
+      <c r="F146" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="I146" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="0" t="n">
+        <v>414</v>
+      </c>
+      <c r="B147" s="0" t="s">
+        <v>532</v>
+      </c>
+      <c r="C147" s="0" t="s">
+        <v>533</v>
+      </c>
+      <c r="D147" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E147" s="0" t="s">
+        <v>535</v>
+      </c>
+      <c r="F147" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="I147" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="0" t="n">
+        <v>418</v>
+      </c>
+      <c r="B148" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C148" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="D148" s="0" t="s">
+        <v>538</v>
+      </c>
+      <c r="E148" s="0" t="s">
+        <v>539</v>
+      </c>
+      <c r="F148" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="H148" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="I148" s="0" t="n">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="0" t="n">
+        <v>419</v>
+      </c>
+      <c r="B149" s="0" t="s">
+        <v>541</v>
+      </c>
+      <c r="C149" s="0" t="s">
+        <v>542</v>
+      </c>
+      <c r="D149" s="0" t="s">
+        <v>543</v>
+      </c>
+      <c r="E149" s="0" t="s">
+        <v>544</v>
+      </c>
+      <c r="F149" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="I149" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
